--- a/REACH/Urea Prills Suppliers.xlsx
+++ b/REACH/Urea Prills Suppliers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SteveIrwin\terminai\REACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7929BF4-3D64-4256-B9CD-4CE34E5B88A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D2F24C-0299-42B5-AA7E-C4C6183CEADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-315" windowWidth="29040" windowHeight="15720" xr2:uid="{357C3DA9-D31C-41EF-AEA3-521682941DE8}"/>
   </bookViews>
@@ -615,10 +615,14 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D26"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
